--- a/output.xlsx
+++ b/output.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hello\PycharmProjects\CS410-Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p2827175\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCFB9DF-BF42-4BC5-B859-B95F44B81276}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="output" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary of Annotations" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,14 +34,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="390">
   <si>
     <t>Pattern</t>
   </si>
@@ -1193,13 +1193,46 @@
   </si>
   <si>
     <t>bayesian optimize; via; bayesian; model; framework; tweet; detection; prediction; reinforcement learning; use; learning; multi-task; neural</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>SSPA</t>
+  </si>
+  <si>
+    <t>SSPT</t>
+  </si>
+  <si>
+    <t>Annotation</t>
+  </si>
+  <si>
+    <t>Context Indicators</t>
+  </si>
+  <si>
+    <t>Top 4 Representative Transactions</t>
+  </si>
+  <si>
+    <t>Semantically similar Author Pattern</t>
+  </si>
+  <si>
+    <t>Semantically similar Title Pattern</t>
+  </si>
+  <si>
+    <t>**Summary shows first 5 annotatations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1215,6 +1248,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1224,7 +1264,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1232,11 +1272,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1244,6 +1299,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1523,26 +1587,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="37.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="41.44140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="37.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="41.42578125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1568,7 +1632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1594,7 +1658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1620,7 +1684,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1646,7 +1710,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -1672,7 +1736,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -1698,7 +1762,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
@@ -1724,7 +1788,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -1750,7 +1814,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>54</v>
       </c>
@@ -1776,7 +1840,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>62</v>
       </c>
@@ -1802,7 +1866,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>70</v>
       </c>
@@ -1828,7 +1892,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>78</v>
       </c>
@@ -1854,7 +1918,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>84</v>
       </c>
@@ -1880,7 +1944,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>88</v>
       </c>
@@ -1906,7 +1970,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>90</v>
       </c>
@@ -1932,7 +1996,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>98</v>
       </c>
@@ -1958,7 +2022,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>101</v>
       </c>
@@ -1984,7 +2048,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>107</v>
       </c>
@@ -2010,7 +2074,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>109</v>
       </c>
@@ -2036,7 +2100,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>112</v>
       </c>
@@ -2062,7 +2126,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>114</v>
       </c>
@@ -2088,7 +2152,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>116</v>
       </c>
@@ -2114,7 +2178,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>124</v>
       </c>
@@ -2140,7 +2204,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>129</v>
       </c>
@@ -2166,7 +2230,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>135</v>
       </c>
@@ -2192,7 +2256,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>137</v>
       </c>
@@ -2218,7 +2282,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>141</v>
       </c>
@@ -2244,7 +2308,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>143</v>
       </c>
@@ -2270,7 +2334,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>145</v>
       </c>
@@ -2296,7 +2360,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>153</v>
       </c>
@@ -2323,7 +2387,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>160</v>
       </c>
@@ -2349,7 +2413,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>168</v>
       </c>
@@ -2375,7 +2439,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>176</v>
       </c>
@@ -2401,7 +2465,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>182</v>
       </c>
@@ -2427,7 +2491,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>189</v>
       </c>
@@ -2453,7 +2517,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>192</v>
       </c>
@@ -2479,7 +2543,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>194</v>
       </c>
@@ -2505,7 +2569,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>197</v>
       </c>
@@ -2531,7 +2595,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>199</v>
       </c>
@@ -2557,7 +2621,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>207</v>
       </c>
@@ -2583,7 +2647,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>215</v>
       </c>
@@ -2609,7 +2673,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>223</v>
       </c>
@@ -2635,7 +2699,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>230</v>
       </c>
@@ -2661,7 +2725,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>238</v>
       </c>
@@ -2687,7 +2751,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>245</v>
       </c>
@@ -2713,7 +2777,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>253</v>
       </c>
@@ -2739,7 +2803,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>261</v>
       </c>
@@ -2765,7 +2829,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>269</v>
       </c>
@@ -2791,7 +2855,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>277</v>
       </c>
@@ -2817,7 +2881,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>285</v>
       </c>
@@ -2843,7 +2907,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>293</v>
       </c>
@@ -2869,7 +2933,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>301</v>
       </c>
@@ -2895,7 +2959,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>308</v>
       </c>
@@ -2921,7 +2985,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>313</v>
       </c>
@@ -2947,7 +3011,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>318</v>
       </c>
@@ -2973,7 +3037,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>323</v>
       </c>
@@ -2999,7 +3063,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>328</v>
       </c>
@@ -3025,7 +3089,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>332</v>
       </c>
@@ -3051,7 +3115,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>339</v>
       </c>
@@ -3077,7 +3141,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>347</v>
       </c>
@@ -3103,7 +3167,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>354</v>
       </c>
@@ -3129,7 +3193,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>362</v>
       </c>
@@ -3155,7 +3219,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>367</v>
       </c>
@@ -3181,7 +3245,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>369</v>
       </c>
@@ -3207,7 +3271,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>371</v>
       </c>
@@ -3236,6 +3300,354 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="str">
+        <f>output!A2</f>
+        <v>ebrahim_bagheri fattane_zarrinkalam</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f>output!B2</f>
+        <v>mining; interests; social; mining social; user; hossein_fani</v>
+      </c>
+      <c r="E2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C3" s="4" t="str">
+        <f>output!C2</f>
+        <v>mining user interests social media</v>
+      </c>
+      <c r="E3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <f>output!D2</f>
+        <v>social user interest mining method application</v>
+      </c>
+      <c r="E4" t="s">
+        <v>382</v>
+      </c>
+      <c r="F4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f>output!E2</f>
+        <v>extracting, mining predict users' interests social network</v>
+      </c>
+      <c r="E5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <f>output!F2</f>
+        <v>5th international workshop mining actionable insight social network (maison 2020) special edition dis/misinformation mining social media</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f>output!G2</f>
+        <v>shaoping_ma&amp;min_zhang&amp;yiqun_liu; wenwu_zhu&amp;peng_cui; jiliang_tang&amp;huan_liu</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <f>output!H2</f>
+        <v>recommendation; social; user; information; model; application; social media; media; network embed; behavior; exploit; network; search; feature selection</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="str">
+        <f>output!A3</f>
+        <v>stefano_mizzaro kevin_roitero</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f>output!B3</f>
+        <v>evaluate; relevance; scale; judgment; topic</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <f>output!C3</f>
+        <v>transform relevance scale</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C11" s="4" t="str">
+        <f>output!D3</f>
+        <v>fine-grained relevance scale</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C12" s="4" t="str">
+        <f>output!E3</f>
+        <v>query performance prediction effectiveness evaluate without relevance judgment two side coin</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <f>output!F3</f>
+        <v>effectiveness evaluate subset topic practical approach</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <f>output!G3</f>
+        <v>jiaxin_mao&amp;yiqun_liu; jiaxin_mao&amp;shaoping_ma; jiaxin_mao&amp;shaoping_ma&amp;yiqun_liu</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C15" s="4" t="str">
+        <f>output!H3</f>
+        <v>evaluate metric; investigate; better; evaluate; behavior; search</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="str">
+        <f>output!A4</f>
+        <v>martin_potthast benno_stein</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C16" s="4" t="str">
+        <f>output!B4</f>
+        <v>argument; share task; snippet; text; text reuse; matthias_hagen</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C17" s="4" t="str">
+        <f>output!C4</f>
+        <v>decade share task digital text forensic pan</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C18" s="4" t="str">
+        <f>output!D4</f>
+        <v>user study snippet generation text reuse vs paraphrase</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C19" s="4" t="str">
+        <f>output!E4</f>
+        <v>wikipedia text reuse within without</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C20" s="4" t="str">
+        <f>output!F4</f>
+        <v>touch first share task argument retrieval</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C21" s="4" t="str">
+        <f>output!G4</f>
+        <v>matthias_hagen&amp;martin_potthast; matthias_hagen&amp;benno_stein; matthias_hagen&amp;martin_potthast&amp;benno_stein</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <f>output!H4</f>
+        <v>snippet generation; snippet; argument; search engine; text reuse; retrieval; search</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="str">
+        <f>output!A5</f>
+        <v>matthias_hagen benno_stein</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C23" s="4" t="str">
+        <f>output!B5</f>
+        <v>search; argument; snippet; retrieval; snippet generation</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C24" s="4" t="str">
+        <f>output!C5</f>
+        <v>abstract snippet generation</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C25" s="4" t="str">
+        <f>output!D5</f>
+        <v>user study snippet generation text reuse vs paraphrase</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C26" s="4" t="str">
+        <f>output!E5</f>
+        <v>plan ancillary copyright original snippet</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C27" s="4" t="str">
+        <f>output!F5</f>
+        <v>touch first share task argument retrieval</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C28" s="4" t="str">
+        <f>output!G5</f>
+        <v>martin_potthast&amp;benno_stein; matthias_hagen&amp;martin_potthast; matthias_hagen&amp;martin_potthast&amp;benno_stein</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C29" s="4" t="str">
+        <f>output!H5</f>
+        <v>share task; snippet generation; snippet; argument; search engine; text reuse; retrieval; search; text</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/output.xlsx
+++ b/output.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470"/>
   </bookViews>
   <sheets>
     <sheet name="output" sheetId="1" r:id="rId1"/>
@@ -1225,7 +1225,7 @@
     <t>Semantically similar Title Pattern</t>
   </si>
   <si>
-    <t>**Summary shows first 5 annotatations</t>
+    <t>**Summary shows first 4 annotatations</t>
   </si>
 </sst>
 </file>
@@ -1264,7 +1264,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1287,11 +1287,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1308,6 +1345,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1590,8 +1636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3307,7 +3353,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3327,7 +3375,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="str">
+      <c r="A2" s="8" t="str">
         <f>output!A2</f>
         <v>ebrahim_bagheri fattane_zarrinkalam</v>
       </c>
@@ -3346,7 +3394,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="3" t="s">
         <v>381</v>
       </c>
@@ -3362,7 +3410,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="3" t="s">
         <v>381</v>
       </c>
@@ -3378,7 +3426,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="3" t="s">
         <v>381</v>
       </c>
@@ -3394,7 +3442,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="3" t="s">
         <v>381</v>
       </c>
@@ -3404,7 +3452,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>382</v>
       </c>
@@ -3417,7 +3465,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="3" t="s">
         <v>383</v>
       </c>
@@ -3427,7 +3475,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="str">
+      <c r="A9" s="8" t="str">
         <f>output!A3</f>
         <v>stefano_mizzaro kevin_roitero</v>
       </c>
@@ -3440,7 +3488,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>381</v>
       </c>
@@ -3450,7 +3498,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>381</v>
       </c>
@@ -3460,7 +3508,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>381</v>
       </c>
@@ -3470,7 +3518,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>381</v>
       </c>
@@ -3480,7 +3528,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>382</v>
       </c>
@@ -3490,7 +3538,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="3" t="s">
         <v>383</v>
       </c>
@@ -3500,7 +3548,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="str">
+      <c r="A16" s="8" t="str">
         <f>output!A4</f>
         <v>martin_potthast benno_stein</v>
       </c>
@@ -3513,7 +3561,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>381</v>
       </c>
@@ -3523,7 +3571,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>381</v>
       </c>
@@ -3533,7 +3581,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>381</v>
       </c>
@@ -3543,7 +3591,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>381</v>
       </c>
@@ -3553,7 +3601,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>382</v>
       </c>
@@ -3563,7 +3611,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="3" t="s">
         <v>383</v>
       </c>
@@ -3573,7 +3621,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="str">
+      <c r="A23" s="8" t="str">
         <f>output!A5</f>
         <v>matthias_hagen benno_stein</v>
       </c>
@@ -3586,7 +3634,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>381</v>
       </c>
@@ -3596,7 +3644,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>381</v>
       </c>
@@ -3606,7 +3654,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>381</v>
       </c>
@@ -3616,7 +3664,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>381</v>
       </c>
@@ -3626,7 +3674,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>382</v>
       </c>
@@ -3636,7 +3684,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="3" t="s">
         <v>383</v>
       </c>
@@ -3646,6 +3694,12 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A23:A29"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
